--- a/data/trans_orig/P24E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9B481D-EA8E-4542-A480-4F812655FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEF488D-E99E-4986-9E8E-CE32EE3AA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93B0403C-332F-4AD4-A2C9-69670B03D37D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99C760C0-C20F-4B25-8B34-827E2A52A6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="483">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -244,1162 +244,1171 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
   </si>
   <si>
     <t>14,63%</t>
@@ -1889,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617FC4CE-CFC2-4536-8D77-5ACD70EF0C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBBA73C-17BA-4A9D-AEBD-1CE22FF17858}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2960,7 +2969,7 @@
         <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -2969,13 +2978,13 @@
         <v>30398</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,16 +3049,16 @@
         <v>129</v>
       </c>
       <c r="D24" s="7">
-        <v>133766</v>
+        <v>133767</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3058,13 +3067,13 @@
         <v>109496</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -3073,13 +3082,13 @@
         <v>243263</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,16 +3100,16 @@
         <v>211</v>
       </c>
       <c r="D25" s="7">
-        <v>218349</v>
+        <v>218350</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3109,13 +3118,13 @@
         <v>143085</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3124,13 +3133,13 @@
         <v>361434</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,16 +3151,16 @@
         <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>57212</v>
+        <v>57213</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -3160,13 +3169,13 @@
         <v>43421</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -3175,13 +3184,13 @@
         <v>100634</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3202,7 @@
         <v>397</v>
       </c>
       <c r="D27" s="7">
-        <v>409328</v>
+        <v>409329</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -3237,7 +3246,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545EAD8E-C1C5-4823-8052-97D2A7053D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0928C77B-E641-474C-9ED2-5962B77F5830}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3382,13 +3391,13 @@
         <v>13672</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3397,13 +3406,13 @@
         <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3412,13 +3421,13 @@
         <v>19906</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3442,13 @@
         <v>9939</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3448,13 +3457,13 @@
         <v>5256</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3463,13 +3472,13 @@
         <v>15195</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3493,13 @@
         <v>1828</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3499,13 +3508,13 @@
         <v>1057</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3514,13 +3523,13 @@
         <v>2885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,10 +3597,10 @@
         <v>40250</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>203</v>
@@ -3609,7 +3618,7 @@
         <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -3618,10 +3627,10 @@
         <v>76108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>208</v>
@@ -3848,7 +3857,7 @@
         <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>236</v>
@@ -4015,13 +4024,13 @@
         <v>43371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4030,13 +4039,13 @@
         <v>94374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4060,13 @@
         <v>73676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4066,13 +4075,13 @@
         <v>49791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4081,13 +4090,13 @@
         <v>123468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4111,13 @@
         <v>21105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4117,13 +4126,13 @@
         <v>20286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -4132,13 +4141,13 @@
         <v>41392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4215,13 @@
         <v>58782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4221,13 +4230,13 @@
         <v>63650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -4236,13 +4245,13 @@
         <v>122432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,10 +4266,10 @@
         <v>68299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>288</v>
@@ -4418,7 +4427,7 @@
         <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -4427,13 +4436,13 @@
         <v>222549</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>433</v>
@@ -4442,13 +4451,13 @@
         <v>462668</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4472,13 @@
         <v>298819</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>184</v>
@@ -4478,13 +4487,13 @@
         <v>202073</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>457</v>
@@ -4493,13 +4502,13 @@
         <v>500893</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4523,13 @@
         <v>81334</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -4529,13 +4538,13 @@
         <v>64361</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -4544,13 +4553,13 @@
         <v>145695</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,7 +4615,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4015A40C-FF16-48AC-8FC6-AE9FCC8CC310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3751D-4445-4901-8089-DA1D89F24E28}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4644,7 +4653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4751,13 +4760,13 @@
         <v>5931</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4766,13 +4775,13 @@
         <v>5345</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4781,13 +4790,13 @@
         <v>11276</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4811,13 @@
         <v>17172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4817,13 +4826,13 @@
         <v>8472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4832,13 +4841,13 @@
         <v>25644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4862,13 @@
         <v>6152</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4868,13 +4877,13 @@
         <v>3511</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4883,13 +4892,13 @@
         <v>9664</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4966,13 @@
         <v>17223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4972,13 +4981,13 @@
         <v>15781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4987,10 +4996,10 @@
         <v>33004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>29</v>
@@ -5008,13 +5017,13 @@
         <v>45722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -5023,13 +5032,13 @@
         <v>25941</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>69</v>
@@ -5038,13 +5047,13 @@
         <v>71663</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5068,13 @@
         <v>17037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5074,13 +5083,13 @@
         <v>6383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5089,13 +5098,13 @@
         <v>23420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5172,13 @@
         <v>36558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5178,13 +5187,13 @@
         <v>37368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -5193,13 +5202,13 @@
         <v>73927</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5223,13 @@
         <v>84516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -5229,13 +5238,13 @@
         <v>80156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -5244,13 +5253,13 @@
         <v>164672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5274,13 @@
         <v>34766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5280,13 +5289,13 @@
         <v>20895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -5295,13 +5304,13 @@
         <v>55661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5378,13 @@
         <v>33246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5384,13 +5393,13 @@
         <v>24576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5399,13 +5408,13 @@
         <v>57822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,10 +5432,10 @@
         <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5435,13 +5444,13 @@
         <v>35777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5450,13 +5459,13 @@
         <v>99187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5480,13 @@
         <v>14697</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5489,10 +5498,10 @@
         <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5501,13 +5510,13 @@
         <v>25882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5584,13 @@
         <v>38224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5590,13 +5599,13 @@
         <v>40642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -5605,13 +5614,13 @@
         <v>78866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5635,13 @@
         <v>62069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -5641,13 +5650,13 @@
         <v>56765</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -5656,13 +5665,13 @@
         <v>118834</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>446</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5686,13 @@
         <v>22119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -5692,13 +5701,13 @@
         <v>24557</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -5707,13 +5716,13 @@
         <v>46675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5790,13 @@
         <v>131182</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -5796,13 +5805,13 @@
         <v>123712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>242</v>
@@ -5811,13 +5820,13 @@
         <v>254894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5841,13 @@
         <v>272889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>201</v>
@@ -5847,13 +5856,13 @@
         <v>207111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M25" s="7">
         <v>455</v>
@@ -5862,13 +5871,13 @@
         <v>480001</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,10 +5892,10 @@
         <v>94770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>46</v>
@@ -5898,13 +5907,13 @@
         <v>66532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -5913,13 +5922,13 @@
         <v>161302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,7 +5984,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEF488D-E99E-4986-9E8E-CE32EE3AA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5CC7B2-6C5C-4CCF-9EDE-40B5ACDADD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99C760C0-C20F-4B25-8B34-827E2A52A6A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABBB8CF-89F8-466B-BDD1-A28C5F28391E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="487">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Hace menos de 1 año</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>51,05%</t>
+    <t>50,62%</t>
   </si>
   <si>
     <t>17,67%</t>
@@ -91,10 +91,10 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -103,25 +103,25 @@
     <t>48,81%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>80,69%</t>
+    <t>80,45%</t>
   </si>
   <si>
     <t>45,21%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>Hace más de 5 años</t>
@@ -130,1363 +130,1375 @@
     <t>33,83%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>86,35%</t>
+    <t>85,72%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>29,68%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>55,3%</t>
   </si>
   <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>39,11%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>43,72%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>55,1%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>59,34%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>15,5%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBBA73C-17BA-4A9D-AEBD-1CE22FF17858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12EB3D5-AEC0-49BA-8F4C-192D5E58F8A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2482,7 +2494,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>65868</v>
+        <v>65867</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>76</v>
@@ -2584,7 +2596,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>124557</v>
+        <v>124556</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
@@ -2757,13 +2769,13 @@
         <v>9341</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -2772,13 +2784,13 @@
         <v>18424</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2846,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2846,13 +2858,13 @@
         <v>42638</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -2861,13 +2873,13 @@
         <v>43812</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -2876,13 +2888,13 @@
         <v>86449</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2909,13 @@
         <v>59717</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -2912,13 +2924,13 @@
         <v>46624</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -2927,13 +2939,13 @@
         <v>106341</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2960,13 @@
         <v>13350</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2963,13 +2975,13 @@
         <v>17048</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -2984,7 +2996,7 @@
         <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,16 +3061,16 @@
         <v>129</v>
       </c>
       <c r="D24" s="7">
-        <v>133767</v>
+        <v>133766</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3067,13 +3079,13 @@
         <v>109496</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -3082,13 +3094,13 @@
         <v>243263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,16 +3112,16 @@
         <v>211</v>
       </c>
       <c r="D25" s="7">
-        <v>218350</v>
+        <v>218349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3118,13 +3130,13 @@
         <v>143085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3133,13 +3145,13 @@
         <v>361434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,16 +3163,16 @@
         <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>57213</v>
+        <v>57212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -3169,13 +3181,13 @@
         <v>43421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -3184,13 +3196,13 @@
         <v>100634</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3214,7 @@
         <v>397</v>
       </c>
       <c r="D27" s="7">
-        <v>409329</v>
+        <v>409328</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -3246,7 +3258,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +3279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0928C77B-E641-474C-9ED2-5962B77F5830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E850D8-9402-4A2E-9771-0EF0C05F5328}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3284,7 +3296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3391,13 +3403,13 @@
         <v>13672</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3406,13 +3418,13 @@
         <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3421,13 +3433,13 @@
         <v>19906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>9939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3457,13 +3469,13 @@
         <v>5256</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3472,13 +3484,13 @@
         <v>15195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>1828</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3508,13 +3520,13 @@
         <v>1057</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3523,13 +3535,13 @@
         <v>2885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3609,13 @@
         <v>40250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3612,13 +3624,13 @@
         <v>35858</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -3627,13 +3639,13 @@
         <v>76108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3660,13 @@
         <v>50416</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3663,13 +3675,13 @@
         <v>37797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -3678,13 +3690,13 @@
         <v>88213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>12865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3714,13 +3726,13 @@
         <v>8950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3729,13 +3741,13 @@
         <v>21814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3815,13 @@
         <v>76413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3818,13 +3830,13 @@
         <v>73436</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -3833,10 +3845,10 @@
         <v>149848</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>234</v>
@@ -3857,10 +3869,10 @@
         <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3869,13 +3881,13 @@
         <v>63876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -3884,13 +3896,13 @@
         <v>160366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3917,13 @@
         <v>24393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3920,13 +3932,13 @@
         <v>11455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3935,13 +3947,13 @@
         <v>35848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4021,13 @@
         <v>51003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4024,13 +4036,13 @@
         <v>43371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4039,13 +4051,13 @@
         <v>94374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4072,13 @@
         <v>73676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4075,13 +4087,13 @@
         <v>49791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4090,13 +4102,13 @@
         <v>123468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4123,13 @@
         <v>21105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4126,13 +4138,13 @@
         <v>20286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -4141,13 +4153,13 @@
         <v>41392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4215,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4215,13 +4227,13 @@
         <v>58782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4230,13 +4242,13 @@
         <v>63650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -4245,13 +4257,13 @@
         <v>122432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>68299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -4281,13 +4293,13 @@
         <v>45353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>110</v>
@@ -4296,13 +4308,13 @@
         <v>113652</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4329,13 @@
         <v>21144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -4332,13 +4344,13 @@
         <v>22613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4347,13 +4359,13 @@
         <v>43756</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4433,13 @@
         <v>240118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -4436,13 +4448,13 @@
         <v>222549</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>433</v>
@@ -4451,13 +4463,13 @@
         <v>462668</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>298819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>184</v>
@@ -4487,13 +4499,13 @@
         <v>202073</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>457</v>
@@ -4502,13 +4514,13 @@
         <v>500893</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>81334</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -4538,10 +4550,10 @@
         <v>64361</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>326</v>
@@ -4615,7 +4627,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3751D-4445-4901-8089-DA1D89F24E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7CA2F4-8052-4E19-88FD-17A0728E7D83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,7 +4793,7 @@
         <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4790,13 +4802,13 @@
         <v>11276</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4823,13 @@
         <v>17172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4826,13 +4838,13 @@
         <v>8472</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4841,13 +4853,13 @@
         <v>25644</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4874,13 @@
         <v>6152</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4877,13 +4889,13 @@
         <v>3511</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4892,13 +4904,13 @@
         <v>9664</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4978,13 @@
         <v>17223</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4981,13 +4993,13 @@
         <v>15781</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4996,13 +5008,13 @@
         <v>33004</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,10 +5423,10 @@
         <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5441,13 @@
         <v>63410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5444,13 +5456,13 @@
         <v>35777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5462,10 +5474,10 @@
         <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5492,13 @@
         <v>14697</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5495,13 +5507,13 @@
         <v>11185</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5510,13 +5522,13 @@
         <v>25882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,7 +5584,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5584,13 +5596,13 @@
         <v>38224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5599,13 +5611,13 @@
         <v>40642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -5614,13 +5626,13 @@
         <v>78866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5647,13 @@
         <v>62069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -5650,13 +5662,13 @@
         <v>56765</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -5665,13 +5677,13 @@
         <v>118834</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>259</v>
+        <v>451</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5698,13 @@
         <v>22119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -5701,13 +5713,13 @@
         <v>24557</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -5716,13 +5728,13 @@
         <v>46675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5802,13 @@
         <v>131182</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -5805,13 +5817,13 @@
         <v>123712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>242</v>
@@ -5820,13 +5832,13 @@
         <v>254894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5853,13 @@
         <v>272889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H25" s="7">
         <v>201</v>
@@ -5856,13 +5868,13 @@
         <v>207111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M25" s="7">
         <v>455</v>
@@ -5871,13 +5883,13 @@
         <v>480001</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5904,13 @@
         <v>94770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5907,13 +5919,13 @@
         <v>66532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -5922,13 +5934,13 @@
         <v>161302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5996,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5CC7B2-6C5C-4CCF-9EDE-40B5ACDADD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1810C1D-5AF3-43F0-A953-9A9B3AB7E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABBB8CF-89F8-466B-BDD1-A28C5F28391E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D47CF0EA-4BFB-40B3-B87D-31189AB940E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="480">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>50,62%</t>
+    <t>51,05%</t>
   </si>
   <si>
     <t>17,67%</t>
@@ -91,1414 +91,1393 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>Entre 5 y 1 año</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>Hace más de 5 años</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>Entre 5 y 1 año</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>Hace más de 5 años</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>59,34%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>15,5%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>15,56%</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12EB3D5-AEC0-49BA-8F4C-192D5E58F8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F548E458-C192-4D0A-979E-687C35E972A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2494,7 +2473,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>65867</v>
+        <v>65868</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>76</v>
@@ -2596,7 +2575,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>124556</v>
+        <v>124557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
@@ -2769,13 +2748,13 @@
         <v>9341</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -2784,13 +2763,13 @@
         <v>18424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2825,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2837,13 @@
         <v>42638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -2873,13 +2852,13 @@
         <v>43812</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -2888,13 +2867,13 @@
         <v>86449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2888,13 @@
         <v>59717</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -2924,13 +2903,13 @@
         <v>46624</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -2939,13 +2918,13 @@
         <v>106341</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2939,13 @@
         <v>13350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2975,13 +2954,13 @@
         <v>17048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -2990,13 +2969,13 @@
         <v>30398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3043,13 @@
         <v>133766</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3079,13 +3058,13 @@
         <v>109496</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -3094,13 +3073,13 @@
         <v>243263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3094,13 @@
         <v>218349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3130,13 +3109,13 @@
         <v>143085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>352</v>
@@ -3145,13 +3124,13 @@
         <v>361434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3145,13 @@
         <v>57212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -3181,13 +3160,13 @@
         <v>43421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -3279,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E850D8-9402-4A2E-9771-0EF0C05F5328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60207F8-8962-44D7-A731-CFCB667A3AD3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,10 +3591,10 @@
         <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3624,13 +3603,13 @@
         <v>35858</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -3639,13 +3618,13 @@
         <v>76108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3639,13 @@
         <v>50416</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3675,13 +3654,13 @@
         <v>37797</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -3690,13 +3669,13 @@
         <v>88213</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3690,13 @@
         <v>12865</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3726,13 +3705,13 @@
         <v>8950</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3741,13 +3720,13 @@
         <v>21814</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3794,13 @@
         <v>76413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>68</v>
@@ -3830,13 +3809,13 @@
         <v>73436</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -3845,10 +3824,10 @@
         <v>149848</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>234</v>
@@ -3869,10 +3848,10 @@
         <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3881,13 +3860,13 @@
         <v>63876</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -3896,13 +3875,13 @@
         <v>160366</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3896,13 @@
         <v>24393</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3932,13 +3911,13 @@
         <v>11455</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3947,13 +3926,13 @@
         <v>35848</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4000,13 @@
         <v>51003</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4036,13 +4015,13 @@
         <v>43371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4051,13 +4030,13 @@
         <v>94374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4051,13 @@
         <v>73676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4087,13 +4066,13 @@
         <v>49791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4102,13 +4081,13 @@
         <v>123468</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4102,13 @@
         <v>21105</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4138,13 +4117,13 @@
         <v>20286</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -4153,13 +4132,13 @@
         <v>41392</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4194,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4227,13 +4206,13 @@
         <v>58782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4242,13 +4221,13 @@
         <v>63650</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -4257,13 +4236,13 @@
         <v>122432</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4257,13 @@
         <v>68299</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -4293,13 +4272,13 @@
         <v>45353</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>110</v>
@@ -4308,13 +4287,13 @@
         <v>113652</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4308,13 @@
         <v>21144</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -4344,13 +4323,13 @@
         <v>22613</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4359,13 +4338,13 @@
         <v>43756</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4412,13 @@
         <v>240118</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -4448,13 +4427,13 @@
         <v>222549</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>433</v>
@@ -4463,13 +4442,13 @@
         <v>462668</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4463,13 @@
         <v>298819</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>184</v>
@@ -4499,13 +4478,13 @@
         <v>202073</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>457</v>
@@ -4553,10 +4532,10 @@
         <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -4565,13 +4544,13 @@
         <v>145695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7CA2F4-8052-4E19-88FD-17A0728E7D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AF223D-5DC3-47CC-8C67-F042D4135A00}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,7 +4644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4772,13 +4751,13 @@
         <v>5931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4787,13 +4766,13 @@
         <v>5345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4802,13 +4781,13 @@
         <v>11276</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4802,13 @@
         <v>17172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4838,10 +4817,10 @@
         <v>8472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>344</v>
@@ -5014,7 +4993,7 @@
         <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5008,13 @@
         <v>45722</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -5044,13 +5023,13 @@
         <v>25941</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>69</v>
@@ -5059,13 +5038,13 @@
         <v>71663</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5059,13 @@
         <v>17037</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5095,13 +5074,13 @@
         <v>6383</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5110,13 +5089,13 @@
         <v>23420</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5163,13 @@
         <v>36558</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5199,13 +5178,13 @@
         <v>37368</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -5214,13 +5193,13 @@
         <v>73927</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5214,13 @@
         <v>84516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -5250,13 +5229,13 @@
         <v>80156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -5265,13 +5244,13 @@
         <v>164672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5265,13 @@
         <v>34766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5301,13 +5280,13 @@
         <v>20895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -5316,13 +5295,13 @@
         <v>55661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5369,13 @@
         <v>33246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5405,13 +5384,13 @@
         <v>24576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5420,13 +5399,13 @@
         <v>57822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5420,13 @@
         <v>63410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5456,13 +5435,13 @@
         <v>35777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5471,13 +5450,13 @@
         <v>99187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5471,13 @@
         <v>14697</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5507,13 +5486,13 @@
         <v>11185</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5522,13 +5501,13 @@
         <v>25882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,7 +5563,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5596,13 +5575,13 @@
         <v>38224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5611,13 +5590,13 @@
         <v>40642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -5626,13 +5605,13 @@
         <v>78866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5626,13 @@
         <v>62069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -5662,13 +5641,13 @@
         <v>56765</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -5677,13 +5656,13 @@
         <v>118834</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5677,13 @@
         <v>22119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -5713,13 +5692,13 @@
         <v>24557</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -5728,13 +5707,13 @@
         <v>46675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5781,13 @@
         <v>131182</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -5817,13 +5796,13 @@
         <v>123712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>242</v>
@@ -5832,13 +5811,13 @@
         <v>254894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>462</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>96</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5832,13 @@
         <v>272889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>201</v>
@@ -5868,13 +5847,13 @@
         <v>207111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>455</v>
@@ -5883,13 +5862,13 @@
         <v>480001</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5883,13 @@
         <v>94770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>46</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5919,13 +5898,13 @@
         <v>66532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -5934,13 +5913,13 @@
         <v>161302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
